--- a/features/Book1.xlsx
+++ b/features/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\toaster\homes\c\h\chenhongquan\nt\AccountSettings\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\toaster\homes\g\u\guangzhou92\nt\AccountSettings\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,22 +336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>1</v>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
